--- a/Doc/Machine Language.xlsx
+++ b/Doc/Machine Language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Rust-Tetris\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18B17DE-FAB3-45F9-BCB0-CF336CC9C8DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B4F38E-016C-44E8-A0A8-C7B3D33E3D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,71 +39,71 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="136">
   <si>
     <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>c1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>c2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>c3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>c4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>c5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>c6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>d1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>d2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>d3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>j1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>j2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>j3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>C-instruction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A-instruction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>t=0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>t=2</t>
@@ -125,271 +125,271 @@
   </si>
   <si>
     <t>ins</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ASM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>init</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Instructions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>inM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>instruction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>reset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>outM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>writeM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>addressM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>pc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ALUout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>InsOrALUout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>AorC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>loadA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Aout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>loadD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Dout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ALUin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>load</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>"NULL"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>STRING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Data Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>"@12345"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>"D=A"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>t=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>"@23456"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>"AD=A-D"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>"@1003"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>"M=D"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>"@1004"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>"MD=D-1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>"a=0"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>"a=1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>"c1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>"c2"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>"c3"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>"c4"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>"c5"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>"c6"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>"0"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>"1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>"-1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>"D"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>"A"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>"!D"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>"!A"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>"-D"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>"-A"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>"D+1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>"A+1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>"D-1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>"A-1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>"D+A"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>"D-A"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>"A-D"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>"D&amp;A"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>"D|A"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>"M"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>"!M"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>"-M"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>"M+1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>"M-1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>"D+M"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>"D-M"</t>
@@ -402,187 +402,195 @@
   </si>
   <si>
     <t>"D&amp;M"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Dest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>"d1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>"d2"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>"d3"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>"Store Comp In"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Computing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Destination </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>AM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>AD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>AMD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>no stored</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>RAM[A]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>D reg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>D reg, RAM[A]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A reg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A reg, RAM[A]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A reg, D reg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A reg, D reg, RAM[A]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Jump</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>JGT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>JEQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>JGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>JLT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>JNE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>JLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>JMP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>j1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>j2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>j3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Effect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>no jump</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&gt; 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&gt;= 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&lt; 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>!=0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&lt;= 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>unconditional jump</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Example</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -609,13 +617,32 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -679,10 +706,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -690,27 +723,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="60% - 着色 1" xfId="2" builtinId="32"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -990,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="BA13" sqref="BA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1010,7 +1051,9 @@
     <col min="27" max="27" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="35" width="8.88671875" style="1"/>
     <col min="36" max="36" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="41" width="8.88671875" style="1"/>
+    <col min="37" max="37" width="8.88671875" style="1"/>
+    <col min="38" max="38" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="41" width="8.88671875" style="1"/>
     <col min="42" max="42" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="43" max="44" width="8.88671875" style="1"/>
     <col min="45" max="45" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -1177,28 +1220,28 @@
       <c r="AI2" s="3">
         <v>1</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AJ2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="AK2" s="3">
+      <c r="AK2" s="9">
         <v>16</v>
       </c>
-      <c r="AL2" s="3">
+      <c r="AL2" s="9">
         <v>16</v>
       </c>
-      <c r="AM2" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN2" s="3">
+      <c r="AM2" s="9">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="10">
         <v>16</v>
       </c>
-      <c r="AO2" s="3">
-        <v>1</v>
-      </c>
-      <c r="AP2" s="3">
+      <c r="AO2" s="10">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="10">
         <v>15</v>
       </c>
-      <c r="AQ2" s="3">
+      <c r="AQ2" s="10">
         <v>15</v>
       </c>
       <c r="AR2" s="3">
@@ -1210,22 +1253,22 @@
       <c r="AT2" s="3">
         <v>1</v>
       </c>
-      <c r="AU2" s="3">
-        <v>1</v>
-      </c>
-      <c r="AV2" s="3">
+      <c r="AU2" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV2" s="10">
         <v>16</v>
       </c>
-      <c r="AW2" s="3">
-        <v>1</v>
-      </c>
-      <c r="AX2" s="3">
+      <c r="AW2" s="10">
+        <v>1</v>
+      </c>
+      <c r="AX2" s="10">
         <v>16</v>
       </c>
       <c r="AY2" s="3">
         <v>16</v>
       </c>
-      <c r="AZ2" s="3">
+      <c r="AZ2" s="10">
         <v>1</v>
       </c>
     </row>
@@ -1332,28 +1375,28 @@
       <c r="AI3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AJ3" s="3" t="s">
+      <c r="AJ3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="AK3" s="3" t="s">
+      <c r="AK3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AL3" s="3" t="s">
+      <c r="AL3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AM3" s="3" t="s">
+      <c r="AM3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="AN3" s="3" t="s">
+      <c r="AN3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AO3" s="3" t="s">
+      <c r="AO3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="AP3" s="3" t="s">
+      <c r="AP3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AQ3" s="3" t="s">
+      <c r="AQ3" s="10" t="s">
         <v>33</v>
       </c>
       <c r="AR3" s="3" t="s">
@@ -1365,22 +1408,22 @@
       <c r="AT3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AU3" s="3" t="s">
+      <c r="AU3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AV3" s="3" t="s">
+      <c r="AV3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AW3" s="3" t="s">
+      <c r="AW3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AX3" s="3" t="s">
+      <c r="AX3" s="10" t="s">
         <v>40</v>
       </c>
       <c r="AY3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AZ3" s="3" t="s">
+      <c r="AZ3" s="10" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1487,28 +1530,28 @@
       <c r="AI4" s="2">
         <v>0</v>
       </c>
-      <c r="AJ4" s="3" t="s">
+      <c r="AJ4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AK4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="2">
+      <c r="AK4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="10">
         <v>0</v>
       </c>
       <c r="AR4" s="2">
@@ -1520,22 +1563,22 @@
       <c r="AT4" s="2">
         <v>1</v>
       </c>
-      <c r="AU4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AV4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX4" s="2">
+      <c r="AU4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="10">
         <v>0</v>
       </c>
       <c r="AY4" s="2">
         <v>0</v>
       </c>
-      <c r="AZ4" s="2">
+      <c r="AZ4" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1591,28 +1634,28 @@
       <c r="AI5" s="2">
         <v>1</v>
       </c>
-      <c r="AJ5" s="3" t="s">
+      <c r="AJ5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AK5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="2">
+      <c r="AK5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="9">
         <v>12345</v>
       </c>
-      <c r="AM5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="2">
+      <c r="AM5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="10">
         <v>12345</v>
       </c>
-      <c r="AQ5" s="2">
+      <c r="AQ5" s="10">
         <v>1</v>
       </c>
       <c r="AR5" s="2">
@@ -1624,22 +1667,22 @@
       <c r="AT5" s="2">
         <v>1</v>
       </c>
-      <c r="AU5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AV5" s="2">
+      <c r="AU5" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV5" s="10">
         <v>12345</v>
       </c>
-      <c r="AW5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="2">
+      <c r="AW5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="10">
         <v>0</v>
       </c>
       <c r="AY5" s="2">
         <v>0</v>
       </c>
-      <c r="AZ5" s="2">
+      <c r="AZ5" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1712,28 +1755,28 @@
       <c r="AI6" s="2">
         <v>0</v>
       </c>
-      <c r="AJ6" s="3" t="s">
+      <c r="AJ6" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AK6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="2">
+      <c r="AK6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="9">
         <v>-5104</v>
       </c>
-      <c r="AM6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="2">
+      <c r="AM6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="10">
         <v>12345</v>
       </c>
-      <c r="AO6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="2">
+      <c r="AO6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="10">
         <v>12345</v>
       </c>
-      <c r="AQ6" s="2">
+      <c r="AQ6" s="10">
         <v>2</v>
       </c>
       <c r="AR6" s="2">
@@ -1745,22 +1788,22 @@
       <c r="AT6" s="2">
         <v>0</v>
       </c>
-      <c r="AU6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV6" s="2">
+      <c r="AU6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="10">
         <v>12345</v>
       </c>
-      <c r="AW6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX6" s="2">
+      <c r="AW6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="10">
         <v>12345</v>
       </c>
       <c r="AY6" s="2">
         <v>12345</v>
       </c>
-      <c r="AZ6" s="2">
+      <c r="AZ6" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1855,28 +1898,28 @@
       <c r="AI7" s="2">
         <v>0</v>
       </c>
-      <c r="AJ7" s="3" t="s">
+      <c r="AJ7" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AK7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="2">
+      <c r="AK7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="9">
         <v>23456</v>
       </c>
-      <c r="AM7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="2">
+      <c r="AM7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="10">
         <v>-1</v>
       </c>
-      <c r="AO7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="2">
+      <c r="AO7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="10">
         <v>23456</v>
       </c>
-      <c r="AQ7" s="2">
+      <c r="AQ7" s="10">
         <v>3</v>
       </c>
       <c r="AR7" s="2">
@@ -1888,22 +1931,22 @@
       <c r="AT7" s="2">
         <v>1</v>
       </c>
-      <c r="AU7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AV7" s="2">
+      <c r="AU7" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV7" s="10">
         <v>23456</v>
       </c>
-      <c r="AW7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="2">
+      <c r="AW7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="10">
         <v>12345</v>
       </c>
       <c r="AY7" s="2">
         <v>0</v>
       </c>
-      <c r="AZ7" s="2">
+      <c r="AZ7" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1996,28 +2039,28 @@
       <c r="AI8" s="2">
         <v>0</v>
       </c>
-      <c r="AJ8" s="3" t="s">
+      <c r="AJ8" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AK8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="2">
+      <c r="AK8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="9">
         <v>-7696</v>
       </c>
-      <c r="AM8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="2">
+      <c r="AM8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="10">
         <v>11111</v>
       </c>
-      <c r="AQ8" s="2">
+      <c r="AQ8" s="10">
         <v>4</v>
       </c>
       <c r="AR8" s="2">
@@ -2029,22 +2072,22 @@
       <c r="AT8" s="2">
         <v>0</v>
       </c>
-      <c r="AU8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AV8" s="2">
+      <c r="AU8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV8" s="10">
         <v>11111</v>
       </c>
-      <c r="AW8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX8" s="2">
+      <c r="AW8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AX8" s="10">
         <v>11111</v>
       </c>
       <c r="AY8" s="2">
         <v>11111</v>
       </c>
-      <c r="AZ8" s="2">
+      <c r="AZ8" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2137,28 +2180,28 @@
       <c r="AI9" s="2">
         <v>1</v>
       </c>
-      <c r="AJ9" s="3" t="s">
+      <c r="AJ9" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AK9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="2">
+      <c r="AK9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="9">
         <v>1003</v>
       </c>
-      <c r="AM9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="2">
+      <c r="AM9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="10">
         <v>-11111</v>
       </c>
-      <c r="AO9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="2">
+      <c r="AO9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="10">
         <v>1003</v>
       </c>
-      <c r="AQ9" s="2">
+      <c r="AQ9" s="10">
         <v>5</v>
       </c>
       <c r="AR9" s="2">
@@ -2170,22 +2213,22 @@
       <c r="AT9" s="2">
         <v>1</v>
       </c>
-      <c r="AU9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AV9" s="2">
+      <c r="AU9" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV9" s="10">
         <v>1003</v>
       </c>
-      <c r="AW9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="2">
+      <c r="AW9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="10">
         <v>11111</v>
       </c>
       <c r="AY9" s="2">
         <v>1003</v>
       </c>
-      <c r="AZ9" s="2">
+      <c r="AZ9" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2278,28 +2321,28 @@
       <c r="AI10" s="2">
         <v>0</v>
       </c>
-      <c r="AJ10" s="3" t="s">
+      <c r="AJ10" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="AK10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="2">
+      <c r="AK10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="9">
         <v>-7416</v>
       </c>
-      <c r="AM10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="2">
+      <c r="AM10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="10">
         <v>11111</v>
       </c>
-      <c r="AO10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP10" s="2">
+      <c r="AO10" s="10">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="10">
         <v>1003</v>
       </c>
-      <c r="AQ10" s="2">
+      <c r="AQ10" s="10">
         <v>6</v>
       </c>
       <c r="AR10" s="2">
@@ -2311,22 +2354,22 @@
       <c r="AT10" s="2">
         <v>0</v>
       </c>
-      <c r="AU10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV10" s="2">
+      <c r="AU10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="10">
         <v>1003</v>
       </c>
-      <c r="AW10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX10" s="2">
+      <c r="AW10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="10">
         <v>11111</v>
       </c>
       <c r="AY10" s="2">
         <v>1003</v>
       </c>
-      <c r="AZ10" s="2">
+      <c r="AZ10" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2419,28 +2462,28 @@
       <c r="AI11" s="2">
         <v>0</v>
       </c>
-      <c r="AJ11" s="3" t="s">
+      <c r="AJ11" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="AK11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="2">
+      <c r="AK11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="9">
         <v>1004</v>
       </c>
-      <c r="AM11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="2">
+      <c r="AM11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="10">
         <v>-11111</v>
       </c>
-      <c r="AO11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP11" s="2">
+      <c r="AO11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="10">
         <v>1004</v>
       </c>
-      <c r="AQ11" s="2">
+      <c r="AQ11" s="10">
         <v>7</v>
       </c>
       <c r="AR11" s="2">
@@ -2452,22 +2495,22 @@
       <c r="AT11" s="2">
         <v>1</v>
       </c>
-      <c r="AU11" s="2">
-        <v>1</v>
-      </c>
-      <c r="AV11" s="2">
+      <c r="AU11" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV11" s="10">
         <v>1004</v>
       </c>
-      <c r="AW11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX11" s="2">
+      <c r="AW11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="10">
         <v>11111</v>
       </c>
       <c r="AY11" s="2">
         <v>1004</v>
       </c>
-      <c r="AZ11" s="2">
+      <c r="AZ11" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2562,28 +2605,28 @@
       <c r="AI12" s="2">
         <v>0</v>
       </c>
-      <c r="AJ12" s="3" t="s">
+      <c r="AJ12" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AK12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="2">
+      <c r="AK12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="9">
         <v>-7272</v>
       </c>
-      <c r="AM12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN12" s="2">
+      <c r="AM12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="10">
         <v>11109</v>
       </c>
-      <c r="AO12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP12" s="2">
+      <c r="AO12" s="10">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="10">
         <v>1004</v>
       </c>
-      <c r="AQ12" s="2">
+      <c r="AQ12" s="10">
         <v>8</v>
       </c>
       <c r="AR12" s="2">
@@ -2595,22 +2638,22 @@
       <c r="AT12" s="2">
         <v>0</v>
       </c>
-      <c r="AU12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV12" s="2">
+      <c r="AU12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="10">
         <v>1004</v>
       </c>
-      <c r="AW12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX12" s="2">
+      <c r="AW12" s="10">
+        <v>1</v>
+      </c>
+      <c r="AX12" s="10">
         <v>11110</v>
       </c>
       <c r="AY12" s="2">
         <v>1004</v>
       </c>
-      <c r="AZ12" s="2">
+      <c r="AZ12" s="10">
         <v>0</v>
       </c>
     </row>
@@ -3140,7 +3183,7 @@
     <mergeCell ref="J16:N16"/>
     <mergeCell ref="S1:AZ1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
